--- a/新3205B电机SuperDial_Bom.xlsx
+++ b/新3205B电机SuperDial_Bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\superdial\开源代码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F2168D-43CD-464D-9229-3D2E46EB6E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E8FCFC-BCA4-41D0-88FC-766F25B73609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>SuperDial电机旋钮屏V2物料清单（打印件）</t>
   </si>
@@ -259,6 +259,18 @@
       </rPr>
       <t>款 无限位</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.28寸TFT液晶显示屏GC9A01驱动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?_u=q1sddf3sfeb4&amp;id=674420369037&amp;spm=a1z09.2.0.0.608a2e8dbkkSsg&amp;skuId=5027778451275</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准焊接款（不带触摸）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -403,6 +415,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,18 +440,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,48 +756,48 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="25" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S25" t="s">
@@ -806,10 +818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -822,12 +834,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
@@ -870,13 +882,13 @@
       <c r="B4" s="2">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -887,13 +899,13 @@
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -907,10 +919,10 @@
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -921,13 +933,13 @@
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -938,10 +950,10 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -958,7 +970,7 @@
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -972,10 +984,10 @@
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -989,7 +1001,7 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1006,10 +1018,10 @@
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1020,10 +1032,10 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1040,7 +1052,7 @@
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1054,7 +1066,7 @@
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1071,7 +1083,7 @@
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1085,7 +1097,7 @@
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1099,14 +1111,31 @@
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="6" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1124,8 +1153,9 @@
     <hyperlink ref="E3" r:id="rId7" xr:uid="{86C0645C-9A77-4AC4-BFE8-ED42B3472416}"/>
     <hyperlink ref="E15" r:id="rId8" xr:uid="{AF9BB57A-A2EB-461D-B608-25C71A4CECB1}"/>
     <hyperlink ref="E4" r:id="rId9" xr:uid="{AD5086DE-64B7-4905-B28B-904B3F23F60E}"/>
+    <hyperlink ref="E19" r:id="rId10" xr:uid="{0FE20F2F-4B61-4B3A-8BA5-9B2AA36C8F30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/新3205B电机SuperDial_Bom.xlsx
+++ b/新3205B电机SuperDial_Bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\superdial\开源代码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E8FCFC-BCA4-41D0-88FC-766F25B73609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095F232B-5AAD-4984-85D6-431EB316100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,10 +114,6 @@
   </si>
   <si>
     <t>M2*5螺丝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在45菌店铺买，会送打印件适配器</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -273,12 +269,40 @@
     <t>标准焊接款（不带触摸）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>在45菌店铺买无限位款可以备注（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>旋钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）会送对应适配器</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +341,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -821,14 +853,14 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="5.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.1796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="106" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -872,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -883,13 +915,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -906,7 +938,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -923,7 +955,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,10 +969,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -951,13 +983,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -985,10 +1017,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1002,10 +1034,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1019,10 +1051,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,13 +1065,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1053,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1067,10 +1099,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1084,7 +1116,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1098,10 +1130,10 @@
         <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,13 +1144,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,13 +1161,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/新3205B电机SuperDial_Bom.xlsx
+++ b/新3205B电机SuperDial_Bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\superdial\开源代码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095F232B-5AAD-4984-85D6-431EB316100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706E772B-F887-433F-AF6D-CFB835B09D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>SuperDial电机旋钮屏V2物料清单（打印件）</t>
   </si>
@@ -295,6 +295,18 @@
       </rPr>
       <t>）会送对应适配器</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP32S3-N16R8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>立创原理图上用的是N8是错的，需要买N16R8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=16&amp;id=676604026231&amp;ns=1&amp;spm=a21n57.1.item.3.42f1523cExSgo1&amp;skuId=5035236575059</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,6 +484,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -850,10 +865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1168,6 +1183,23 @@
       </c>
       <c r="E19" s="3" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1186,8 +1218,9 @@
     <hyperlink ref="E15" r:id="rId8" xr:uid="{AF9BB57A-A2EB-461D-B608-25C71A4CECB1}"/>
     <hyperlink ref="E4" r:id="rId9" xr:uid="{AD5086DE-64B7-4905-B28B-904B3F23F60E}"/>
     <hyperlink ref="E19" r:id="rId10" xr:uid="{0FE20F2F-4B61-4B3A-8BA5-9B2AA36C8F30}"/>
+    <hyperlink ref="E20" r:id="rId11" xr:uid="{CA7DB1FA-6537-492C-8296-B74F9A272056}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>